--- a/resources/homeless_texas.xlsx
+++ b/resources/homeless_texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arlealcid/Desktop/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejasp/Documents/BootcampRepos/Project-1/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A8B0E5-0F0D-E048-AAD7-C387C9D2ABE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9658D08-736F-E242-A326-5DCFD7A3089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{EE6ACFB9-75CA-7C4C-8C09-2E325847BA07}"/>
+    <workbookView xWindow="0" yWindow="1340" windowWidth="29400" windowHeight="16920" xr2:uid="{EE6ACFB9-75CA-7C4C-8C09-2E325847BA07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,18 +44,6 @@
     <t>Number of CoCs</t>
   </si>
   <si>
-    <t>Overall Homeless, 2020</t>
-  </si>
-  <si>
-    <t>Overall Homeless - Under 18, 2020</t>
-  </si>
-  <si>
-    <t>Overall Homeless - Age 18 to 24, 2020</t>
-  </si>
-  <si>
-    <t>Overall Homeless - Over 24, 2020</t>
-  </si>
-  <si>
     <t>Overall Homeless - Female, 2020</t>
   </si>
   <si>
@@ -813,6 +801,18 @@
   </si>
   <si>
     <t>Ca</t>
+  </si>
+  <si>
+    <t>Overall Homeless - Under 18</t>
+  </si>
+  <si>
+    <t>Overall Homeless - Age 18 to 24</t>
+  </si>
+  <si>
+    <t>Overall Homeless - Over 24</t>
+  </si>
+  <si>
+    <t>Overall Homeless</t>
   </si>
 </sst>
 </file>
@@ -1223,790 +1223,790 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:257" s="3" customFormat="1" ht="155" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="ET1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="EV1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="2" t="s">
+      <c r="EX1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FA1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FC1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FE1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="2" t="s">
+      <c r="FG1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FZ1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GA1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GB1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GC1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GD1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="2" t="s">
+      <c r="GE1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="2" t="s">
+      <c r="GF1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="2" t="s">
+      <c r="GG1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="2" t="s">
+      <c r="GH1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="2" t="s">
+      <c r="GI1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="2" t="s">
+      <c r="GJ1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="2" t="s">
+      <c r="GK1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="GH1" s="2" t="s">
+      <c r="GL1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="GI1" s="2" t="s">
+      <c r="GM1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="GJ1" s="2" t="s">
+      <c r="GN1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="GK1" s="2" t="s">
+      <c r="GO1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="GL1" s="2" t="s">
+      <c r="GP1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="GM1" s="2" t="s">
+      <c r="GQ1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="GN1" s="2" t="s">
+      <c r="GR1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="GO1" s="2" t="s">
+      <c r="GS1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="GP1" s="2" t="s">
+      <c r="GT1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="GQ1" s="2" t="s">
+      <c r="GU1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="GR1" s="2" t="s">
+      <c r="GV1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="GS1" s="2" t="s">
+      <c r="GW1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="2" t="s">
+      <c r="GX1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" s="2" t="s">
+      <c r="GY1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="GV1" s="2" t="s">
+      <c r="GZ1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="GW1" s="2" t="s">
+      <c r="HA1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="GX1" s="2" t="s">
+      <c r="HB1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="GY1" s="2" t="s">
+      <c r="HC1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="GZ1" s="2" t="s">
+      <c r="HD1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="HA1" s="2" t="s">
+      <c r="HE1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="HB1" s="2" t="s">
+      <c r="HF1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="HC1" s="2" t="s">
+      <c r="HG1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="HD1" s="2" t="s">
+      <c r="HH1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="HE1" s="2" t="s">
+      <c r="HI1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="HF1" s="2" t="s">
+      <c r="HJ1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="HG1" s="2" t="s">
+      <c r="HK1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="HH1" s="2" t="s">
+      <c r="HL1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="HI1" s="2" t="s">
+      <c r="HM1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="HJ1" s="2" t="s">
+      <c r="HN1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="HK1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="HL1" s="2" t="s">
+      <c r="HP1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="HM1" s="2" t="s">
+      <c r="HQ1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HR1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="HO1" s="2" t="s">
+      <c r="HS1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="HP1" s="2" t="s">
+      <c r="HT1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="HQ1" s="2" t="s">
+      <c r="HU1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="HR1" s="2" t="s">
+      <c r="HV1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="HS1" s="2" t="s">
+      <c r="HW1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="HT1" s="2" t="s">
+      <c r="HX1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="HU1" s="2" t="s">
+      <c r="HY1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="HV1" s="2" t="s">
+      <c r="HZ1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="HW1" s="2" t="s">
+      <c r="IA1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="HX1" s="2" t="s">
+      <c r="IB1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="HY1" s="2" t="s">
+      <c r="IC1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="HZ1" s="2" t="s">
+      <c r="ID1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="IA1" s="2" t="s">
+      <c r="IE1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="IB1" s="2" t="s">
+      <c r="IF1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="IC1" s="2" t="s">
+      <c r="IG1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="ID1" s="2" t="s">
+      <c r="IH1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="IE1" s="2" t="s">
+      <c r="II1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="IF1" s="2" t="s">
+      <c r="IJ1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="IG1" s="2" t="s">
+      <c r="IK1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="IH1" s="2" t="s">
+      <c r="IL1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="II1" s="2" t="s">
+      <c r="IM1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="IJ1" s="2" t="s">
+      <c r="IN1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="IK1" s="2" t="s">
+      <c r="IO1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="IL1" s="2" t="s">
+      <c r="IP1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="IM1" s="2" t="s">
+      <c r="IQ1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="IN1" s="2" t="s">
+      <c r="IR1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="IO1" s="2" t="s">
+      <c r="IS1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="IP1" s="2" t="s">
+      <c r="IT1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="2" t="s">
+      <c r="IU1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="2" t="s">
+      <c r="IV1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="2" t="s">
+      <c r="IW1" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="IT1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="4">
         <v>2020</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C2" s="5">
         <v>11</v>
@@ -2775,11 +2775,11 @@
       </c>
     </row>
     <row r="3" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="4">
         <v>2019</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C3" s="5">
         <v>11</v>
@@ -3548,11 +3548,11 @@
       </c>
     </row>
     <row r="4" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="4">
         <v>2018</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -4321,11 +4321,11 @@
       </c>
     </row>
     <row r="5" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="4">
         <v>2017</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
@@ -5094,11 +5094,11 @@
       </c>
     </row>
     <row r="6" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="4">
         <v>2016</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
@@ -5867,11 +5867,11 @@
       </c>
     </row>
     <row r="7" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="4">
         <v>2015</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -6640,11 +6640,11 @@
       </c>
     </row>
     <row r="8" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="4">
         <v>2014</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C8" s="5">
         <v>12</v>
@@ -6924,11 +6924,11 @@
       </c>
     </row>
     <row r="9" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="4">
         <v>2013</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C9" s="5">
         <v>12</v>
@@ -7208,11 +7208,11 @@
       </c>
     </row>
     <row r="10" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="4">
         <v>2012</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C10" s="5">
         <v>14</v>
@@ -7351,11 +7351,11 @@
       </c>
     </row>
     <row r="11" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="4">
         <v>2011</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C11" s="5">
         <v>16</v>
@@ -7494,11 +7494,11 @@
       </c>
     </row>
     <row r="12" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="4">
         <v>2010</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C12" s="5">
         <v>17</v>
@@ -7598,11 +7598,11 @@
       </c>
     </row>
     <row r="13" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="4">
         <v>2009</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C13" s="5">
         <v>18</v>
@@ -7690,11 +7690,11 @@
       </c>
     </row>
     <row r="14" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="4">
         <v>2008</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C14" s="5">
         <v>18</v>
@@ -7779,11 +7779,11 @@
       </c>
     </row>
     <row r="15" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="4">
         <v>2007</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C15" s="5">
         <v>18</v>
@@ -7868,11 +7868,11 @@
       </c>
     </row>
     <row r="16" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="4">
         <v>2020</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C16" s="5">
         <v>44</v>
@@ -8641,11 +8641,11 @@
       </c>
     </row>
     <row r="17" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="4">
         <v>2019</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C17" s="5">
         <v>44</v>
@@ -9414,11 +9414,11 @@
       </c>
     </row>
     <row r="18" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="4">
         <v>2018</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C18" s="5">
         <v>43</v>
@@ -10187,11 +10187,11 @@
       </c>
     </row>
     <row r="19" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="4">
         <v>2017</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C19" s="5">
         <v>43</v>
@@ -10960,11 +10960,11 @@
       </c>
     </row>
     <row r="20" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="4">
         <v>2016</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C20" s="5">
         <v>43</v>
@@ -11733,11 +11733,11 @@
       </c>
     </row>
     <row r="21" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="4">
         <v>2015</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C21" s="5">
         <v>43</v>
@@ -12506,11 +12506,11 @@
       </c>
     </row>
     <row r="22" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="4">
         <v>2014</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C22" s="5">
         <v>40</v>
@@ -12790,11 +12790,11 @@
       </c>
     </row>
     <row r="23" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="4">
         <v>2013</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C23" s="5">
         <v>40</v>
@@ -13074,11 +13074,11 @@
       </c>
     </row>
     <row r="24" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="4">
         <v>2012</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C24" s="5">
         <v>42</v>
@@ -13217,11 +13217,11 @@
       </c>
     </row>
     <row r="25" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="4">
         <v>2011</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C25" s="5">
         <v>42</v>
@@ -13360,11 +13360,11 @@
       </c>
     </row>
     <row r="26" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="4">
         <v>2010</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C26" s="5">
         <v>43</v>
@@ -13464,11 +13464,11 @@
       </c>
     </row>
     <row r="27" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="4">
         <v>2009</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C27" s="5">
         <v>43</v>
@@ -13556,11 +13556,11 @@
       </c>
     </row>
     <row r="28" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="4">
         <v>2008</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C28" s="5">
         <v>42</v>
@@ -13645,11 +13645,11 @@
       </c>
     </row>
     <row r="29" spans="1:257" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="4">
         <v>2007</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C29" s="5">
         <v>42</v>
